--- a/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009726</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009727</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -580,112 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +532,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,13 +757,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,32 +814,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159855</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华中证影视主题ETF</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0505</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -882,104 +852,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516620</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证影视主题ETF</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.37</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -988,14 +890,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000156-华数传媒.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -532,6 +549,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -757,7 +944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
